--- a/PO/data/dict2xlsx.xlsx
+++ b/PO/data/dict2xlsx.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>aa</t>
   </si>
@@ -40,21 +36,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,48 +69,106 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -150,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,69 +446,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>1.2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2.4</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7.3</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1.2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2.4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>4.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>7.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>